--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/65_Rize_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/65_Rize_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6EBA922-B99F-41A0-B3C9-5103D713F156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0350512A-8097-4544-93EF-B23DC3972FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="674" xr2:uid="{D314B977-A5DB-459D-B2C9-148148A73BDF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{D07AFB9D-676F-4CA6-97E1-F12E4700AAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -996,13 +996,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1197103F-80BB-4468-BEB8-835B38FC4201}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{314856AD-8815-4C20-A5E9-0BD997940BB6}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{29BCDB4A-5E97-4FBC-834A-AFDB08C6B659}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{194A88F7-D327-4819-8DF5-EE388E2901F5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{22721920-E96F-48DE-83AC-77B6CE445FD3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{CA7D0880-B4B7-4BDA-B15A-B0E4ED79F633}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{BCE900B8-3BEB-4234-A59D-8A7B1F48AEA5}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{11355145-21CF-44E8-8FC3-62B364B8C14E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{44CC6BFF-12FB-4576-A7EE-8E781FFBA2E0}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F62A2242-52AB-4A45-B1E2-36804B58AD4F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{23D234E5-9137-44BF-9FD1-85A93CA9EA7A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1EA515CE-B2ED-4C46-8527-442EB3CD9CC0}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8FBA7325-25A1-4971-9A88-86301AE7D617}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{B9CC70CF-A6FC-42FA-B593-2634D3DB6F19}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1372,7 +1372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACDBDF0-952D-420C-8A39-FD3AD6B1CCC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB16C0C-93A7-4402-B0CB-FF9C83F8B4A3}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2660,17 +2660,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B5509D5-556E-4F93-AB65-7692E99E8614}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE8277A4-6014-4DC4-91DE-3B933BB1C169}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94617241-6F44-4AB0-A0A0-E2B4E63B008C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5742C2C8-B628-4570-9DD9-E3DA0A9D4494}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6A6D823-21A4-4111-BBB4-BF4433C7F490}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FCE18899-46F0-4241-9B2D-0710B123C1AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25F291A7-488D-42A9-A3D3-F537EF76A7B6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33F3A720-5281-47F5-9DF2-FA4A10CD9F89}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4124A1BD-75E8-499E-8A2C-5C226E1D1F6A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{70AB762D-5E9E-4C60-AAE1-309997FF4832}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3EA4E3AB-7268-4CFA-8203-57B55F5B0D7D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C52550E-911C-43AD-9215-4FBC73512085}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{737CCB3A-FB03-45A0-BC64-1912328DD0BA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A4D0289-5AD0-41F1-9318-FCC5EC7E4C0E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{484B3E02-7FD1-45B9-A6F8-BD6727074C56}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DCDC2718-521C-4E7E-BFEB-704DB53D6697}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9C40342-62ED-4B92-9DA3-7DC59725EDFA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{797D4C66-56CF-49DF-8CCD-29B1C20DC128}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68E809FF-0931-4E60-AC59-3FF8D344E325}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AF816D6F-F661-4B87-A52A-7810E8F8C11D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{521263B0-1031-4719-8362-CD6BDA019C3B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1EF2911-9DAD-459A-9AEE-28DBF204766C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2683,7 +2683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54B2FC8-54AB-4531-A514-034D74982FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8E045F-9137-4DC6-8B5E-353ED38D5A18}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3962,17 +3962,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{005460B2-7E12-4419-B795-93A94B737193}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF9C8E98-0E4A-4925-806A-F64714924FF9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BAE811CA-A057-4702-8E3F-0708B85B31A1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{952419A7-68C9-48C8-B94E-978414AC6CF0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A3408A7-E1E0-4B90-B921-40E2208A7F63}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F6AA0A42-2D70-4F74-A98C-03ED4CE91FCD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5D56215-792B-4415-A33D-C06CE96ECDD7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AFB2D23-5816-4051-8DB6-A1A91154C827}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2E4082FE-8B67-42DE-9C7A-30FC182EBA55}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{38994FC6-9284-4D0A-8F2B-DC721A744E1D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F174FCD4-7F07-4964-92C5-6CC66A4C9F1D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB9DB64F-3FF1-4CE0-8190-8D874BECFAB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{765AF8E1-16AD-4E0D-9509-766A9D4938CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3C446B55-C6D9-4C78-8BCA-67EF7E761341}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F1D5B6F3-3A52-4635-9B5E-F60A0089987F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46556849-4420-44BD-A8F9-D344FB3BB95A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10E22C1C-0197-4DC2-A7E6-08A1187A127D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13B8CECB-C435-4DF8-B377-A988C334B7FD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D0776F3-B4B6-4CE1-8C20-DDD8AB133E4A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{428D6672-A3D7-4591-B6A2-A648777A8C22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5D69445B-5CFE-4C21-A139-673CC347D29D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9B475EF-25B9-4212-BCF7-E06CE1DA0D1E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3985,7 +3985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67942A75-1583-4A05-8C65-984470D70754}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059EE961-E7FC-47D9-AF7F-FA68F6E39917}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5264,17 +5264,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAC96F65-FB31-4349-B961-7E97970F0AB7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5D32B71-EFCE-4B91-91BF-16331733DF0C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E0D311C7-790B-46E2-9769-0DE8A1EBE7D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{86E4CE6A-FC9C-496F-8D4C-A64A70FC923B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75B9D732-1AA9-4ECE-92ED-D01094B93DB4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BFE213C-A3A6-49DA-8E65-266D6BA02E75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B28FB68E-5AB2-467B-BB6F-1EEFD9023341}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1CB4F8D-EB7E-44D3-9AAC-5601DDD8C131}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A952DC0C-D70F-42D2-B28A-6DF987424A0B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{682F3426-9E17-4245-ABAD-E6FB9F17D965}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C7295295-7F39-4C5A-B2F2-5287D6134948}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D4ACE52-202E-4B4F-9E0B-FDA95743A36F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC6D9D05-3EDF-448A-BCF6-D3B8A9CAD622}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7062D8CD-FA9C-44E1-B18A-D02850D30C4F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0B4F0AEF-FC49-44CE-BE7B-3FF5CB934145}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C6FFDA1-EF62-4144-ADF8-980AFDF88F59}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D33FE83-6098-4D0F-B3ED-85DBF891C954}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{056F892B-3EF5-460A-AFA1-B6C5546AE416}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2D59587-76C3-4E13-A75E-53D3AA940D63}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0157BB33-41F6-44C8-B9A6-7E669F1F606B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{19CFBADE-6A24-488A-9DDC-310B12A827FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A10BC512-A5BE-4806-9566-CE1EAF3F96A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5287,7 +5287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAC6EE0-F597-445A-AF87-4F11B4CD4AAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFFD91E-603F-4612-8ACE-01E1882B2E7F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6564,17 +6564,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8869C44B-B42C-4FB4-ADBB-BD7B36858626}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75A22CE2-26CF-4270-82CB-64AB7AF4AD72}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8FCBDD97-8749-415D-B0AB-05646701A75C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25705FDD-82A7-4F0C-B585-739542650B6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B945085-398B-44D3-984F-176B0A6C744C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{82E86444-1FAE-4DFE-B4B7-FB704DD9C2E8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{008979D2-80E3-4DBE-B119-AF9D5ABC6A3B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BA14F24-2B19-4498-9551-F64524A4D928}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{16671D54-5D48-4186-9F16-7987C5E51564}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23BAAA37-57AE-4001-8AF9-65A94E0D2E2B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F03D2FD-A858-47F9-9C11-25CF5BB3B122}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A68CA41-410B-4A54-A185-A38C70F3CA57}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCF3D28D-99A4-47ED-9317-58696A4212DA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3CC7231E-6FED-4ED2-804E-0D7E542A0E73}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A60C5EE-8A42-4D0D-9942-92ACCA4EA1F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18B185CF-5106-4547-969A-797B0FE3A9ED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{67C9A80B-E82B-4970-996A-9863C1156D59}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AEAA317-903D-48D8-A32D-FC9E9E6A47C7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7F8B28E-DB37-4AFC-AA68-0655B3D85DC2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5DF390E-31C8-49A6-80A8-C96F1A3ACE02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3AA24EFC-6EA5-4F93-B544-AC5262C9E8CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FCA2DFB-178A-4A6C-B118-B55AF66B58A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6587,7 +6587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF5E333-508C-4E4E-8049-19597D232CCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39795CD7-E8A1-403B-9995-DFE603E8E0CE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7870,17 +7870,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EA97781-AC4C-4830-ADA2-9E053B0ED640}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFAB745B-8CD1-4667-92CC-21CAC0259690}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F18BCD1-CA8D-4002-82A4-B558F62BFC2F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69E094AA-A94C-40AC-9B17-DEDC04769171}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A174AB4C-424E-464F-83EC-1A6DF1E3A12C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9FE01506-03E9-47EF-AC3E-523AEF06FD39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE22BA0A-5474-4F02-8C0B-426A0DB2C0D8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8BE8F9C-EA2E-48D5-851C-114B133F10F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9822FE3A-A788-40BC-B03E-416A30199896}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F4DA7DB3-EDCC-4160-90CF-1F4EA0BE04B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0415B2BB-5C6C-4A13-B50B-12DB7D5C9984}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC1A7BA6-A219-46AF-BBB4-F82E0AF9C857}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{069C6CEE-2B82-4FAB-AE70-411355D8BC88}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03C1909E-EDDA-473B-ADFE-3EFEC7E21EDD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C7C4E71-E655-4FAA-A868-5602C9203E71}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2EC56DFF-E3D3-49E4-B869-485D889ABECE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B5E631F3-497A-4EB9-86B1-D0F0B7FE64BF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18B8DBB6-1C53-45DF-B29C-C5A79585533D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B41FF59A-22FA-49C7-B76E-932F646302C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3765000C-3F8F-40AF-B276-4176A14A4E17}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5CC10D9F-6441-4EC6-8436-D226E117DD03}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A155D7C-45BF-4458-9A18-8B93FB433B38}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7893,7 +7893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81906B4-7169-4584-A2E9-BC4BFF895321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53CFF8C-04CE-49C3-A820-6EF268D5529B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9176,17 +9176,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F260C72-4958-4059-AB5A-DE4801B1494D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DDCFCB3-05F6-4059-97FA-037E56D4CE06}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C5304EA2-C695-4607-BA5E-6A3D43C91676}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{08C29E50-24A1-48EF-BAB1-72EBA283CD8E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5140E756-360E-4735-9F44-A702E9C87A04}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{039BB197-2DB1-4B1B-ABDE-D53EEE5859BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9C9677E-7C05-4E38-9677-F37422B89F4A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D05EED4F-0BFE-4058-89DB-58DBCA44AE5B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5F0B5FC3-03D9-4C03-8422-0B0D0949DEA0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7766C363-F012-49CC-AE68-44CE645443EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5B785CD-4F9A-4C1A-8BF9-24EDC5BBD17B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{02DC3525-3D93-4F48-A1BD-B3C94E8A67B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5CFCD457-2443-4866-9284-B74DE8F5D8B3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6615508-921E-4C31-9270-2C7F28D58DAF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1416EF99-8D43-4075-A3BF-4A1A0987BCC3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A3A7299-D577-4187-A723-104103BFD419}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{10B0F25D-BD79-4B6D-89D0-3FD796318BF0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71D75707-146C-4916-A1BC-1106E98F26B9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7B4E2A6-B9F5-4AFB-A026-064633B4CA01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D9B73AE9-DC17-4E4F-82B2-39C47F5D7116}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{69D05579-E834-4E35-989B-02F8C307D3A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA70C655-452A-46C6-BD6B-1E08FD803227}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9199,7 +9199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4450E3D9-CF70-4BC5-89A5-24357817E054}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3314E5E0-1E84-41A7-A5BA-06E607732E6D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10482,17 +10482,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{239CCC23-9D87-4EB8-A042-A7947C9945EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3931570B-1A32-4268-A6D7-718743DCAECE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BD0D6E12-E46A-4738-B798-6B1EF07383B9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92F8D925-E495-4377-B08F-1F153EA4FD49}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C5A70BD1-2D75-4D65-8EFA-C1050CCD4623}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A4225A5-D69F-42D4-A853-52DFB02B6626}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BD7D9B3-7A7C-4680-A0D6-C81A63B9B158}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3D888C05-8201-4EA4-B064-3C849D6960C5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3043BA1E-1207-4595-AB33-C0947DDFF758}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5AF974D6-D3C1-4ECA-AAD9-75DFC4A11AF3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85DB8D91-CFBC-4F00-B508-6B087CEA1AD3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE405CC2-4274-4149-A573-7F3E352714BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{188537BC-BFB8-4BE1-B9F9-B9D9D6CB2F96}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA7DB056-79FF-4CF2-8FE0-BA4CF402CB95}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CB392E7-A4E8-4832-A71E-98BA7F936F52}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA119283-3A94-4845-85BF-31FF530F6091}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2637FB81-5E71-4C45-A2E4-9FDA72C754E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAB78F46-7467-41FD-8299-128085B6536F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D21151BB-6B50-4E51-966C-6EC7B317F161}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{34F5109C-D696-4F5C-8F23-F06721151236}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D61DD4CB-E7FE-432B-9818-1A89A48D5389}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75449441-5C40-4D55-A0F3-23FBC8BFCCE5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10505,7 +10505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1276B0E-AA40-4581-8D16-576561E66B2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814B28BB-E0E1-4F7B-8530-25347E1F9640}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11784,17 +11784,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFFC6CE6-60C9-435E-B68F-24261DAF95E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B8E9F05-BAE7-4EA3-AB74-0177B41E9F0E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DACA110F-302A-412D-8C6B-07C90ECF2906}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9218E2F3-6E2E-4CF3-B7FD-5D24BDB774DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FBFB235-167E-4CA3-88CD-D2238FA11907}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6916FE19-9F8F-4DB0-A33B-DF14EFEF18D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95F9DA01-6FC7-49B0-9BF3-1FE60007F8BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33D3FA3A-F2AD-4EF0-9F93-01EE50AE9BA6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{386FF0D6-EEA3-4B88-B568-E98108867B34}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{56076F75-F448-4CC8-AE27-BE7480158680}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20464A26-F668-4CD1-92E0-6CD79F11486D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D27585EF-70CC-409A-8E50-1038EB63483B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B44AE8CC-CE95-4899-9F63-69F331698DFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A40510E7-9128-47F4-A0BE-771EAB716662}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F165754-71B1-4F46-9E9F-7FA5E66EB9C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2F5F460-6A17-43EA-AFD7-58314A899225}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CEAEB6D3-D8BF-4F3E-B224-D139D71E2CFC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C3F716BC-CFBD-41A4-811B-F3D112EDEDE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAEDBA61-A871-48D4-96BF-CFA66BF49A01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{894CCB0C-0CDC-46EB-820C-AC22340ADCF4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{96B3AAAE-E305-437F-A98D-8CA3DFF45C13}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{607C7773-D607-4A5A-AE51-54663F5C42AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11807,7 +11807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286CF8E5-BC37-41C5-953F-1B0FA8888121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7010D0E-40F3-46C9-97A3-B3E337E5C345}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13086,17 +13086,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6058C290-3DE4-43F0-BB32-F64073F5DD07}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F3B34A8-F1E5-49C3-9AB3-CD82757D143A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6C7A7583-466D-48D6-805D-99AAFE4995BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{44511AB7-CEE3-4E08-8CDB-BAC083EF9345}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{880F7E20-FCDB-43E2-B1CF-09305692341A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9EEA594E-F859-49EB-912B-E02B77DF1E9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7E27E52-62DE-4406-AAEF-6CB93A574405}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73FDE5DB-D78B-495B-8873-0D887CB73B18}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6770909F-3536-493F-8E2A-256587903F06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{46A55CB4-77D6-4FFB-BC59-2494FA2920DF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64BD3605-D8F8-45C3-96FA-2D341A8FA2C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57FF70F1-EC15-4E0C-82BF-4C2159A37DFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C567065C-2F7C-47CE-ADF1-5A3460C40420}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{11A60723-1613-4009-BA2B-5959533EEB66}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A381C740-61A5-4665-817B-94AF0D3F9B4E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2ACFD87-3CAE-41BE-8DF9-5D76B0254377}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58C9CEAB-1A16-4056-8960-D00CBFF717D2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1588F39-3995-4A86-8658-160F8BD07EDA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BF86B63-8113-460B-9D37-4F45FFD3A09F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F7053DEE-9623-4F3A-A240-54DB8AFF22C4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{897621C5-C783-4439-81D2-FE7DDD5AC2BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F92AE3DE-08CC-459B-BAD5-7F634A606803}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13109,7 +13109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2727AF5-DAB2-4AD7-BBC0-1D824C9B8142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B685D999-3218-45A7-B3AC-61D16D41D897}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14388,17 +14388,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68D239EA-AFD7-44B9-BF60-625BE96A3BE1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DDE3FE2-558E-4271-B551-D76C7450964A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{68B7A85A-E026-420A-B1CC-68D2156A32C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1817A891-2D77-453E-8A5E-134BD11CEB56}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0D0D799-F879-4006-91CE-DC33763D281A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CE50312-B73D-4AD0-B540-9DBEC241EA2D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17F6D7F9-3433-4996-A293-E7D4B0BA030F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4C3BE45-91C1-4371-8F93-6E6BDAC63E09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0E45CEC8-E79E-47E3-BDF9-8870568870B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{25982E6B-F739-41E4-ABA1-BB85B94D235B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4182239B-6A8F-4D8D-8779-6D8D0689247A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD219EF1-C126-447E-A625-72857443FDF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2594C10B-299C-457E-A33B-B585657B3FF5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{389B9E3F-D2F6-4B3B-BEF7-9C620B464C91}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{80774DD7-9E2D-4955-BCE4-55807B0B23FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25FCC8BD-F28B-4FAF-B5BC-142F81079D1E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8E76807D-F92E-4298-868A-8DCDFB75877C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07480EE4-9F61-4B5F-AA59-998C7F43D92B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31590430-7E7E-4958-8820-AE4D28A5A81C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E6B6F648-4C2F-4D3A-9A70-55DE6A1E0592}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C4C1A095-67F6-4FFC-AAEF-4B4D12A96970}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A19F7632-3B4F-4016-9612-A90220F134F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14411,7 +14411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CA6250-BCDE-4BD8-B627-629C57F92A5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0B772-1F74-4E0E-A8D1-65F7437E2B43}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15690,17 +15690,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9B84440-4859-4DBC-9F1A-2E573B332060}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95F22EAB-FB3C-4A6E-A42F-6E7DEE573078}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE3F2149-D19B-4A3E-A285-DAB39677FEA0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA723895-C695-4999-9004-54BC87FD91C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F2338B9C-1857-4E8B-AFAD-34903F9D6002}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC8D17FF-0CE1-48EF-B2FD-DA7D66963564}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48EC1EB4-D0AB-4F0D-9979-F893601EA1AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C137C78D-7BAF-48A9-A8A1-7946E0D3248D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7C5397B1-9C83-426F-8F44-C6EDFAE5BD14}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{28FB5B59-1AA6-498A-AF8D-DD48C7938097}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25809CCA-F5EA-46AE-99ED-A93E375F6DE5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A333F0D-A9CE-4CDA-83AD-6369D4EAA9EB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0F5B8E1-ACD8-4A5D-8679-784A6697392D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{245BDB4F-0326-4B48-9BF0-94ECF9BADAB7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF0A9542-539C-4F63-9E16-D805DBA3FC10}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F607C1CB-1514-4481-B1E7-3A3DA14CAF56}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{856AB3A9-38F8-4966-9756-E4D64E282DE7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D4F8F39-EFAD-44F8-9C31-D1BF748311E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5802EA9A-A56E-4F36-A394-CA49E4010B12}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{726B6D9C-FB5F-40F1-84EE-D2824A00B5E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6CE34FB2-BFF0-4BC1-80AB-000CD066B307}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EE050E74-3C3A-49A2-8773-0778EB85C169}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15713,7 +15713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF465AE-A844-4457-B0A1-8A4D8A40B543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D95EA3-D408-4216-9BE3-504F2FE88443}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16992,17 +16992,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0D5B318-6E92-42E8-8F8E-E2A3CADFEECB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E21F943A-50EF-4A24-B7EA-C27C8F26AB66}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC038457-5309-49D1-96DA-BE2C329F94E8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D764D494-0F85-4C92-B3D0-62F5C4E29A95}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDCFD906-5F6F-43DC-9825-0C88BE711D91}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4DA7335E-A7DD-4ADD-837E-A1B6EFA2EB25}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF0BA62D-8C91-4C18-8CBC-BD9275078247}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{266EB527-4235-4E91-BB6F-76A30641FE7B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DBEC28F8-7102-406E-A2A6-7764ECFB8D06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{22679129-5C0A-41AC-B0B1-8B1578EFA231}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{173AE6C8-9717-4793-AF35-96B74038619D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EFF644E-C109-43BA-8001-03D8EF04FB40}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B1DA03D-7AB7-4F8D-99F0-20008A8A5402}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9C9BAF4-AA7D-4B8C-BE6D-0053085585F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{482E9173-E268-4C3E-ABCA-64580E4E7B66}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{872DD851-A28E-44A2-ACF2-3BFE63CECD65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60C17C02-0D24-413E-9C2A-451C007911CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58A5E010-B2EA-42C1-B84F-AAA66D0D2478}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BB38051E-1790-4649-93F3-ACE8C25F85AD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58B59C87-491D-44C0-9B7E-4CB37021E264}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{941BCBEE-AD52-45BF-9892-02AED5ADE378}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48E2B025-68DE-4E4B-B7DE-6C50EDB1CAAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
